--- a/Projects 2022/Food Court North Walk/Summary of Bills.xlsx
+++ b/Projects 2022/Food Court North Walk/Summary of Bills.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA41E4C7-A425-41AB-B9C6-7C43E9DBD546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F1DB3-C281-46A0-AB90-1585537A7571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Sr #</t>
   </si>
@@ -333,13 +333,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>113550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -680,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:C31"/>
+  <dimension ref="A7:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -697,7 +697,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45268</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -831,59 +831,37 @@
         <v>2</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24" s="18">
-        <v>422000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="18">
-        <v>188145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="18">
         <v>45500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
+    <row r="25" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="21">
-        <f>SUM(C16:C27)</f>
-        <v>5981312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="C26" s="21">
+        <f>SUM(C16:C25)</f>
+        <v>5371167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
